--- a/Proyectos/Viaticos/01. Requerimientos/Viaticos-LevantamientoRequerimientos.xlsx
+++ b/Proyectos/Viaticos/01. Requerimientos/Viaticos-LevantamientoRequerimientos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,12 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
   <si>
     <t>Nombre del proyecto:</t>
   </si>
   <si>
+    <t>Viáticos</t>
+  </si>
+  <si>
     <t>Contacto con cliente</t>
+  </si>
+  <si>
+    <t>Rene Pulido</t>
   </si>
   <si>
     <t>Actividades para la Obtención de Requerimientos</t>
@@ -590,7 +596,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -618,12 +624,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -636,11 +638,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -648,19 +650,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -676,72 +670,68 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -752,23 +742,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -776,7 +758,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -784,20 +766,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Normal" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -867,15 +844,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>84600</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1198440</xdr:colOff>
+      <xdr:colOff>1251720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>824400</xdr:rowOff>
+      <xdr:rowOff>823680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -888,8 +865,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7954560" y="0"/>
-          <a:ext cx="2575080" cy="824400"/>
+          <a:off x="8008560" y="0"/>
+          <a:ext cx="2574360" cy="823680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -909,15 +886,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2642400</xdr:colOff>
+      <xdr:colOff>2696400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5141160</xdr:colOff>
+      <xdr:colOff>5194440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>824400</xdr:rowOff>
+      <xdr:rowOff>823680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -930,8 +907,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3145680" y="0"/>
-          <a:ext cx="2498760" cy="824400"/>
+          <a:off x="3199680" y="0"/>
+          <a:ext cx="2498040" cy="823680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -953,8 +930,8 @@
   </sheetPr>
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -983,7 +960,9 @@
         <v>0</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -992,19 +971,21 @@
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1012,9 +993,9 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1022,81 +1003,81 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="5"/>
-      <c r="K5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="8"/>
+      <c r="K5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6"/>
-      <c r="C6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="5"/>
-      <c r="K6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>6</v>
+      <c r="K6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6"/>
-      <c r="C7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="5"/>
-      <c r="K7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>9</v>
+      <c r="K7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="43.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6"/>
-      <c r="C8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="5"/>
-      <c r="K8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>12</v>
+      <c r="K8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6"/>
-      <c r="C9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="5"/>
-      <c r="K9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>15</v>
+      <c r="K9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,276 +1091,276 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="C11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="C12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="F12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="G12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="C13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="D13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="E13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="F13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="G13" s="20" t="s">
         <v>33</v>
       </c>
+      <c r="H13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="B14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="C14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="D14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="E14" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="F14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="25"/>
+      <c r="G14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="21" t="s">
+      <c r="B15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="C15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="D15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="E15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="25"/>
+      <c r="F15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="21" t="s">
+      <c r="B16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="C16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="D16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="25"/>
+      <c r="F16" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="B17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="C17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="D17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="E17" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="25"/>
+      <c r="F17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="B18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="C18" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="D18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="21" t="s">
+      <c r="B19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="C19" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="25"/>
+      <c r="D19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="B20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="C20" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="D20" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="E20" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="25"/>
+      <c r="F20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="21" t="s">
+      <c r="B21" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="C21" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="D21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="E21" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="25"/>
+      <c r="F21" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="B22" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="C22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="25"/>
+      <c r="D22" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="26" t="s">
+      <c r="B23" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="C23" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1411,526 +1392,270 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IR40"/>
+  <dimension ref="B1:E40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="1.85204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="29" width="5.28061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="29" width="77.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="29" width="14.6785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="29" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="252" min="6" style="29" width="10.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="253" style="30" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.85204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.28061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6785714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5408163265306"/>
+    <col collapsed="false" hidden="false" max="252" min="6" style="0" width="10.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="253" style="27" width="11.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="true" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" s="33" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+    <row r="1" s="28" customFormat="true" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E2" s="29"/>
     </row>
     <row r="3" s="2" customFormat="true" ht="30.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
-      <c r="BF3" s="6"/>
-      <c r="BG3" s="6"/>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="6"/>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="6"/>
-      <c r="BM3" s="6"/>
-      <c r="BN3" s="6"/>
-      <c r="BO3" s="6"/>
-      <c r="BP3" s="6"/>
-      <c r="BQ3" s="6"/>
-      <c r="BR3" s="6"/>
-      <c r="BS3" s="6"/>
-      <c r="BT3" s="6"/>
-      <c r="BU3" s="6"/>
-      <c r="BV3" s="6"/>
-      <c r="BW3" s="6"/>
-      <c r="BX3" s="6"/>
-      <c r="BY3" s="6"/>
-      <c r="BZ3" s="6"/>
-      <c r="CA3" s="6"/>
-      <c r="CB3" s="6"/>
-      <c r="CC3" s="6"/>
-      <c r="CD3" s="6"/>
-      <c r="CE3" s="6"/>
-      <c r="CF3" s="6"/>
-      <c r="CG3" s="6"/>
-      <c r="CH3" s="6"/>
-      <c r="CI3" s="6"/>
-      <c r="CJ3" s="6"/>
-      <c r="CK3" s="6"/>
-      <c r="CL3" s="6"/>
-      <c r="CM3" s="6"/>
-      <c r="CN3" s="6"/>
-      <c r="CO3" s="6"/>
-      <c r="CP3" s="6"/>
-      <c r="CQ3" s="6"/>
-      <c r="CR3" s="6"/>
-      <c r="CS3" s="6"/>
-      <c r="CT3" s="6"/>
-      <c r="CU3" s="6"/>
-      <c r="CV3" s="6"/>
-      <c r="CW3" s="6"/>
-      <c r="CX3" s="6"/>
-      <c r="CY3" s="6"/>
-      <c r="CZ3" s="6"/>
-      <c r="DA3" s="6"/>
-      <c r="DB3" s="6"/>
-      <c r="DC3" s="6"/>
-      <c r="DD3" s="6"/>
-      <c r="DE3" s="6"/>
-      <c r="DF3" s="6"/>
-      <c r="DG3" s="6"/>
-      <c r="DH3" s="6"/>
-      <c r="DI3" s="6"/>
-      <c r="DJ3" s="6"/>
-      <c r="DK3" s="6"/>
-      <c r="DL3" s="6"/>
-      <c r="DM3" s="6"/>
-      <c r="DN3" s="6"/>
-      <c r="DO3" s="6"/>
-      <c r="DP3" s="6"/>
-      <c r="DQ3" s="6"/>
-      <c r="DR3" s="6"/>
-      <c r="DS3" s="6"/>
-      <c r="DT3" s="6"/>
-      <c r="DU3" s="6"/>
-      <c r="DV3" s="6"/>
-      <c r="DW3" s="6"/>
-      <c r="DX3" s="6"/>
-      <c r="DY3" s="6"/>
-      <c r="DZ3" s="6"/>
-      <c r="EA3" s="6"/>
-      <c r="EB3" s="6"/>
-      <c r="EC3" s="6"/>
-      <c r="ED3" s="6"/>
-      <c r="EE3" s="6"/>
-      <c r="EF3" s="6"/>
-      <c r="EG3" s="6"/>
-      <c r="EH3" s="6"/>
-      <c r="EI3" s="6"/>
-      <c r="EJ3" s="6"/>
-      <c r="EK3" s="6"/>
-      <c r="EL3" s="6"/>
-      <c r="EM3" s="6"/>
-      <c r="EN3" s="6"/>
-      <c r="EO3" s="6"/>
-      <c r="EP3" s="6"/>
-      <c r="EQ3" s="6"/>
-      <c r="ER3" s="6"/>
-      <c r="ES3" s="6"/>
-      <c r="ET3" s="6"/>
-      <c r="EU3" s="6"/>
-      <c r="EV3" s="6"/>
-      <c r="EW3" s="6"/>
-      <c r="EX3" s="6"/>
-      <c r="EY3" s="6"/>
-      <c r="EZ3" s="6"/>
-      <c r="FA3" s="6"/>
-      <c r="FB3" s="6"/>
-      <c r="FC3" s="6"/>
-      <c r="FD3" s="6"/>
-      <c r="FE3" s="6"/>
-      <c r="FF3" s="6"/>
-      <c r="FG3" s="6"/>
-      <c r="FH3" s="6"/>
-      <c r="FI3" s="6"/>
-      <c r="FJ3" s="6"/>
-      <c r="FK3" s="6"/>
-      <c r="FL3" s="6"/>
-      <c r="FM3" s="6"/>
-      <c r="FN3" s="6"/>
-      <c r="FO3" s="6"/>
-      <c r="FP3" s="6"/>
-      <c r="FQ3" s="6"/>
-      <c r="FR3" s="6"/>
-      <c r="FS3" s="6"/>
-      <c r="FT3" s="6"/>
-      <c r="FU3" s="6"/>
-      <c r="FV3" s="6"/>
-      <c r="FW3" s="6"/>
-      <c r="FX3" s="6"/>
-      <c r="FY3" s="6"/>
-      <c r="FZ3" s="6"/>
-      <c r="GA3" s="6"/>
-      <c r="GB3" s="6"/>
-      <c r="GC3" s="6"/>
-      <c r="GD3" s="6"/>
-      <c r="GE3" s="6"/>
-      <c r="GF3" s="6"/>
-      <c r="GG3" s="6"/>
-      <c r="GH3" s="6"/>
-      <c r="GI3" s="6"/>
-      <c r="GJ3" s="6"/>
-      <c r="GK3" s="6"/>
-      <c r="GL3" s="6"/>
-      <c r="GM3" s="6"/>
-      <c r="GN3" s="6"/>
-      <c r="GO3" s="6"/>
-      <c r="GP3" s="6"/>
-      <c r="GQ3" s="6"/>
-      <c r="GR3" s="6"/>
-      <c r="GS3" s="6"/>
-      <c r="GT3" s="6"/>
-      <c r="GU3" s="6"/>
-      <c r="GV3" s="6"/>
-      <c r="GW3" s="6"/>
-      <c r="GX3" s="6"/>
-      <c r="GY3" s="6"/>
-      <c r="GZ3" s="6"/>
-      <c r="HA3" s="6"/>
-      <c r="HB3" s="6"/>
-      <c r="HC3" s="6"/>
-      <c r="HD3" s="6"/>
-      <c r="HE3" s="6"/>
-      <c r="HF3" s="6"/>
-      <c r="HG3" s="6"/>
-      <c r="HH3" s="6"/>
-      <c r="HI3" s="6"/>
-      <c r="HJ3" s="6"/>
-      <c r="HK3" s="6"/>
-      <c r="HL3" s="6"/>
-      <c r="HM3" s="6"/>
-      <c r="HN3" s="6"/>
-      <c r="HO3" s="6"/>
-      <c r="HP3" s="6"/>
-      <c r="HQ3" s="6"/>
-      <c r="HR3" s="6"/>
-      <c r="HS3" s="6"/>
-      <c r="HT3" s="6"/>
-      <c r="HU3" s="6"/>
-      <c r="HV3" s="6"/>
-      <c r="HW3" s="6"/>
-      <c r="HX3" s="6"/>
-      <c r="HY3" s="6"/>
-      <c r="HZ3" s="6"/>
-      <c r="IA3" s="6"/>
-      <c r="IB3" s="6"/>
-      <c r="IC3" s="6"/>
-      <c r="ID3" s="6"/>
-      <c r="IE3" s="6"/>
-      <c r="IF3" s="6"/>
-      <c r="IG3" s="6"/>
-      <c r="IH3" s="6"/>
-      <c r="II3" s="6"/>
-      <c r="IJ3" s="6"/>
-      <c r="IK3" s="6"/>
-      <c r="IL3" s="6"/>
-      <c r="IM3" s="6"/>
-      <c r="IN3" s="6"/>
-      <c r="IO3" s="6"/>
-      <c r="IP3" s="6"/>
-      <c r="IQ3" s="6"/>
-      <c r="IR3" s="6"/>
+      <c r="D3" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="36" t="n">
+      <c r="B4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>92</v>
+      <c r="C4" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="36" t="n">
+      <c r="B5" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="36" t="n">
+      <c r="B6" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>92</v>
+      <c r="C6" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36" t="n">
+      <c r="B7" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>92</v>
+      <c r="C7" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="102.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>65</v>
+      <c r="C8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>65</v>
+      <c r="C9" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="36" t="n">
+      <c r="B10" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>92</v>
+      <c r="C10" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>92</v>
+      <c r="C11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Proyectos/Viaticos/01. Requerimientos/Viaticos-LevantamientoRequerimientos.xlsx
+++ b/Proyectos/Viaticos/01. Requerimientos/Viaticos-LevantamientoRequerimientos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
   <si>
     <t>Nombre del proyecto:</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>Los usuarios serán capaces de editar el contenido de Viáticos y Gastos para definir si esta activo o no.</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir al usuario recuperar su contraseña a través de un correo enviado por la aplicación a solicitud del usuario, así como un envío de correo tras generar el registro del usuario para que este previamente lo confirme antes de usar dicha cuenta.</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -764,6 +767,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -844,15 +851,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
+      <xdr:colOff>165600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1251720</xdr:colOff>
+      <xdr:colOff>1278360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>823680</xdr:rowOff>
+      <xdr:rowOff>823320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -865,8 +872,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8008560" y="0"/>
-          <a:ext cx="2574360" cy="823680"/>
+          <a:off x="8035560" y="0"/>
+          <a:ext cx="2574000" cy="823320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -886,15 +893,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2696400</xdr:colOff>
+      <xdr:colOff>2723400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5194440</xdr:colOff>
+      <xdr:colOff>5221080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>823680</xdr:rowOff>
+      <xdr:rowOff>823320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -907,8 +914,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3199680" y="0"/>
-          <a:ext cx="2498040" cy="823680"/>
+          <a:off x="3226680" y="0"/>
+          <a:ext cx="2497680" cy="823320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -930,8 +937,8 @@
   </sheetPr>
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1394,8 +1401,8 @@
   </sheetPr>
   <dimension ref="B1:E40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1541,9 +1548,19 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+    <row r="12" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="7"/>

--- a/Proyectos/Viaticos/01. Requerimientos/Viaticos-LevantamientoRequerimientos.xlsx
+++ b/Proyectos/Viaticos/01. Requerimientos/Viaticos-LevantamientoRequerimientos.xlsx
@@ -325,7 +325,7 @@
     <t>A su vez el usuario podrá generar un reporte de gastos que deberá ser generado en Excel conteniendo los siguientes campos: Deposito Adelantado siendo este la sumatoria de los viáticos otorgados (hace referencia al dinero que reciben para generar los gastos del proyecto por lo tanto el usuario puede registrar viáticos cada cierto tiempo ingresando al proyecto sobre el cual se generaran los gastos), columna de comprobante (mencionara si el registro contiene comprobante o no), numero de comprobante, proyecto al que pertenece el comprobante, fecha en la que se generó el gasto, Tipo de gasto, importe y comentarios , dicho reporte sera generado a partir de una fecha de inicio y de fin seleccionada por el usuario.</t>
   </si>
   <si>
-    <t>Cada usuario que esté involucrado en el proyecto podrá dar de alta un gasto, para poder realizar ello previamente el usuario Administrador del proyecto deberá agregarlo a la lista de participantes.</t>
+    <t>Cada usuario que esté involucrado en el proyecto podrá dar de alta un gasto o viático, para poder realizar ello previamente el usuario Administrador del proyecto deberá agregarlo a la lista de participantes.</t>
   </si>
   <si>
     <t>Por cada gasto registrado se deberá contener la información del reporte de viáticos más la captura del comprobante, los datos requeridos para la generación de este reporte serán: número de comprobante, proyecto al que pertenece, fecha en la que se realizó el gasto, Tipo de gasto, importe y comentarios al mismo, también se deberá agregar un campo adicional que marque si es o no un gasto con comprobante.</t>
@@ -851,15 +851,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>192600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1278360</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>24840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>823320</xdr:rowOff>
+      <xdr:rowOff>822960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -872,8 +872,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8035560" y="0"/>
-          <a:ext cx="2574000" cy="823320"/>
+          <a:off x="8062560" y="0"/>
+          <a:ext cx="2573640" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -893,15 +893,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2723400</xdr:colOff>
+      <xdr:colOff>2750400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5221080</xdr:colOff>
+      <xdr:colOff>5247720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>823320</xdr:rowOff>
+      <xdr:rowOff>822960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -914,8 +914,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3226680" y="0"/>
-          <a:ext cx="2497680" cy="823320"/>
+          <a:off x="3253680" y="0"/>
+          <a:ext cx="2497320" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1401,8 +1401,8 @@
   </sheetPr>
   <dimension ref="B1:E40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1506,7 +1506,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="n">
         <v>6</v>
       </c>
